--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_16.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_16.xlsx
@@ -483,35 +483,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>isophonics_79</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_146</t>
+          <t>isophonics_297</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.15625</v>
+        <v>0.07435740514075886</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>[['E', 'B', 'E']]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(57.251357, 73.909779)]</t>
+          <t>[(4.103323, 13.890534)]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(5.91585, 14.867142)]</t>
+          <t>[(0.421247, 3.083177)]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr"/>
@@ -520,35 +520,35 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jaah_86</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_75</t>
+          <t>isophonics_33</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.04249902075989033</v>
+        <v>0.09821428571428571</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:7', 'C:7', 'F:7', 'F:7']]</t>
+          <t>[['G#:maj', 'C#:maj', 'G#:maj']]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['F:7', 'F:7', 'Bb:7', 'Bb:7']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(26.8, 30.62)]</t>
+          <t>[(9.64, 11.38)]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.42, 18.96)]</t>
+          <t>[(13.723015, 16.39331)]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr"/>
@@ -557,35 +557,35 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_48</t>
+          <t>schubert-winterreise_151</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_156</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.1596638655462185</v>
+        <v>0.3882352941176471</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'A']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Ab']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(85.437167, 91.834264)]</t>
+          <t>[(117.54, 121.8)]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(111.87, 114.76)]</t>
+          <t>[(11.070127, 13.723731)]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr"/>
@@ -594,35 +594,35 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>isophonics_133</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>jaah_80</t>
+          <t>isophonics_49</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.09015151515151515</v>
+        <v>0.2118055555555556</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F:maj']]</t>
+          <t>[['E:min', 'A', 'D', 'D/2', 'D/3']]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G:min7', 'C:7', 'F']]</t>
+          <t>[['A:min', 'D', 'G', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(60.86, 67.913)]</t>
+          <t>[(51.315598, 57.7109)]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(20.73, 23.45)]</t>
+          <t>[(16.993365, 23.936132)]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr"/>
@@ -631,72 +631,76 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>schubert-winterreise_106</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_201</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.1547619047619048</v>
+        <v>0.2363636363636364</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:maj', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['D:maj', 'A:maj', 'D:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(0.74, 21.5)]</t>
+          <t>[(39.84, 47.28)]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(122.674, 126.958)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[(0.66, 2.68)]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>isophonics_43</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_191</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.1819852941176471</v>
+        <v>0.2870813397129187</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['A', 'D', 'A']]</t>
+          <t>[['E', 'A:min', 'E', 'A:min']]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'E'], ['A', 'D', 'A']]</t>
+          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(11.964095, 14.54151), (11.070127, 13.723731)]</t>
+          <t>[(31.051451, 41.036031)]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(78.565, 87.795), (74.879, 85.949)]</t>
+          <t>[(87.24, 90.18)]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr"/>
@@ -705,113 +709,113 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_218</t>
+          <t>schubert-winterreise_171</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_241</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1726973684210526</v>
+        <v>0.1001011122345804</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:sus4', 'G', 'C']]</t>
+          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:sus4', 'G', 'C']]</t>
+          <t>[['F', 'C', 'F']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(4.928, 8.311)]</t>
+          <t>[(46.56, 49.08)]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(100.826, 106.71)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[(0.440395, 5.558652)]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>isophonics_136</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1714285714285714</v>
+        <v>0.1345050215208035</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>[['E/4', 'A', 'A', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'D:min']]</t>
+          <t>[['B', 'E', 'E/3', 'A', 'E/5']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(24.58, 32.94)]</t>
+          <t>[(6.779, 11.273)]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(49.06, 57.32)]</t>
+          <t>[(24.357755, 31.172811)]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>jaah_43</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3809523809523809</v>
+        <v>0.2232142857142857</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(7.16, 15.08)]</t>
+          <t>[(227.62, 235.06)]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(58.557, 62.834)]</t>
+          <t>[(5.44, 10.01)]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr"/>
@@ -820,199 +824,195 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_160</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.04807692307692308</v>
+        <v>0.2708333333333333</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['G:min/D', 'D:7', 'G:min'], ['G:min/A#', 'C:min', 'G:min/A#']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C'], ['C:min/G', 'G:7', 'C:min'], ['C:min', 'F:min', 'C:min/G']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(77.72, 88.0), (46.52, 48.94), (99.6, 111.62)]</t>
+          <t>[(80.42, 84.64), (10.82, 17.08)]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(236.4, 239.98), (23.98, 27.34), (9.72, 13.0)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[(57.48, 64.58), (85.58, 94.24)]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_68</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_6</t>
+          <t>schubert-winterreise_207</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2072072072072072</v>
+        <v>0.3794871794871795</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.74, 17.66)]</t>
+          <t>[(68.98, 87.2)]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(14.3, 15.21)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[(31.26, 45.88)]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
+          <t>schubert-winterreise_167</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_194</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1</v>
+        <v>0.1030405405405405</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['G', 'A:7', 'D']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(116.7, 122.32)]</t>
+          <t>[(27.66, 34.24)]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[(73.125602, 78.292043)]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_64</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_135</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.0882943143812709</v>
+        <v>0.1348837209302326</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(16.82, 23.18)]</t>
+          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.646772, 12.917702)]</t>
+          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>isophonics_107</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>isophonics_31</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.2388758782201405</v>
+        <v>0.2289473684210526</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(63.1, 64.32)]</t>
+          <t>[(15.027029, 21.737596)]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(49.56, 55.72)]</t>
+          <t>[(17.581738, 30.271443)]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr"/>
@@ -1021,76 +1021,76 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_6</t>
+          <t>schubert-winterreise_37</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_178</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1538461538461539</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['D:maj/F#', 'A:7', 'D:maj'], ['B:min', 'F#:maj', 'B:min']]</t>
+          <t>[['F:min/C', 'C', 'F:min/C']]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min'], ['F:maj', 'C:7/E', 'F:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(79.42, 86.02), (37.54, 42.72), (13.98, 21.5)]</t>
+          <t>[(45.58, 49.6)]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(129.06, 134.2), (39.02, 43.96), (2.3, 7.04)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>[(0.78, 5.26)]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>isophonics_109</t>
+          <t>jaah_27</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.546875</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'A']]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['A:7', 'D', 'D']]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>[(65.81034, 71.679931)]</t>
+          <t>[(218.68, 226.54)]</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>[(94.925, 100.821)]</t>
+          <t>[(9.82, 12.93)]</t>
         </is>
       </c>
       <c r="H17" t="inlineStr"/>

--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_16.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,618 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.07435740514075886</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['E', 'B', 'E']]</t>
-        </is>
+          <t>isophonics_52</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_3</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1071428571428571</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>[['C', 'D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(4.103323, 13.890534)]</t>
+          <t>[['C', 'D', 'G', 'G']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.421247, 3.083177)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:04.987052', '0:00:08.504874')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:01:15.705034', '0:01:20.407074')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68BTFws92cRztMS1oQ7Ewj</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_3</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_33</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.09821428571428571</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G#:maj', 'C#:maj', 'G#:maj']]</t>
-        </is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_15</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1441176470588235</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(9.64, 11.38)]</t>
+          <t>[['C', 'F', 'C']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(13.723015, 16.39331)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:01:10.203514', '0:01:27.246961')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_151</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3882352941176471</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
-        </is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(117.54, 121.8)]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(11.070127, 13.723731)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:07.160000', '0:00:15.080000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:04:22.920000', '0:04:26.900000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_49</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2118055555555556</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['E:min', 'A', 'D', 'D/2', 'D/3']]</t>
-        </is>
+          <t>jaah_15</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.08084239130434782</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['A:min', 'D', 'G', 'G', 'G']]</t>
+          <t>[['G:7', 'C', 'C']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(51.315598, 57.7109)]</t>
+          <t>[['C:7', 'F:maj', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(16.993365, 23.936132)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:12.030000', '0:00:14.360000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:17.360000', '0:00:19.540000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_106</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_48</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3882352941176471</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(39.84, 47.28)]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(0.66, 2.68)]</t>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>[('0:01:22.290863', '0:01:30.185647')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_43</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2870813397129187</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E', 'A:min', 'E', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1083333333333333</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G']]</t>
+          <t>[['D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(31.051451, 41.036031)]</t>
+          <t>[['C:min/G', 'G', 'C:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(87.24, 90.18)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:15.060000', '0:00:20.560000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
-        </is>
+          <t>schubert-winterreise_31</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(46.56, 49.08)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(0.440395, 5.558652)]</t>
+          <t>[('0:00:30.020000', '0:00:44.280000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1345050215208035</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E/4', 'A', 'A', 'D/5', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'E/3', 'A', 'E/5']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(6.779, 11.273)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(24.357755, 31.172811)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:02:00.400000', '0:02:03.780000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:24.860000', '0:00:52.580000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_43</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2232142857142857</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:7/G', 'D:maj/F#', 'D:maj/A']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(227.62, 235.06)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(5.44, 10.01)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:06.520000', '0:01:10.140000')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:34.020000', '0:02:39.240000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_160</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2708333333333333</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#'], ['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_90</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj'], ['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(80.42, 84.64), (10.82, 17.08)]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(57.48, 64.58), (85.58, 94.24)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:02:34.760000', '0:02:40.980000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:02:08.760000', '0:02:14')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_207</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3794871794871795</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_37</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(68.98, 87.2)]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(31.26, 45.88)]</t>
+          <t>[('0:00:17.320000', '0:01:02.460000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:16.140000', '0:00:59.100000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_167</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_194</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1030405405405405</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_14</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_97</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G', 'A:7', 'D']]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(27.66, 34.24)]</t>
+          <t>[['A:maj', 'D:maj', 'E:9/G#', 'A:maj', 'B:7/F#', 'E:min', 'A:(3,5,b7,b9)', 'D:maj', 'G:maj', 'D:maj/F#', 'A:min/E', 'B:maj/D#', 'C:maj/E', 'D:7/F#', 'G:maj', 'E:min7/G', 'E:(3,5,b7,b9)/G#', 'A:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(73.125602, 78.292043)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:13.260000', '0:01:39.080000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:01:00.760000', '0:01:22.800000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_64</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_161</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_104</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:min/A#', 'D#:min'], ['D#:maj/A#', 'A#:7', 'D#:min/A#'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(12.42, 27.08), (55.72, 64.64), (0.82, 6.76)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj', 'F:7', 'A#:maj', 'D:7/A', 'G#:(3,5)', 'C:maj', 'A:(3,5,b7,b9)', 'D:min/G', 'F:maj/G', 'G:7', 'C:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(36.18, 37.98), (35.88, 37.42), (9.1, 13.86)]</t>
+          <t>[('0:00:01.600000', '0:00:41.420000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:00.240000', '0:00:35.100000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2289473684210526</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_95</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(17.581738, 30.271443)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:13.400000', '0:01:28.140000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_113</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1714285714285714</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
-        </is>
+          <t>schubert-winterreise_139</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_80</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'B:maj', 'B:(3,#5,7)/A#', 'G#:min', 'G#:hdim7/F#', 'C#:7/F', 'C#:maj', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(45.58, 49.6)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A#:maj', 'A#:(3,#5,7)/A', 'G:min', 'G:hdim7/F', 'C:7/E', 'C:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(0.78, 5.26)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2053571428571428</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(218.68, 226.54)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(9.82, 12.93)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:13.920000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:01.240000', '0:00:15.940000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
